--- a/frontend/uploaded/Маршруты 16.04.2025.xlsx
+++ b/frontend/uploaded/Маршруты 16.04.2025.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\ртк\2025\Журналы доставки\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -13,8 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/SharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="177">
   <si>
     <t>Регион/Маршрут (6)</t>
   </si>
@@ -106,7 +111,7 @@
     <t>Реализация товаров и услуг РТ000008360 от 16.04.2025 16:35:17</t>
   </si>
   <si>
-    <t>ВЭМ СПЕЦТЕХ ООО </t>
+    <t>ВЭМ СПЕЦТЕХ ООО</t>
   </si>
   <si>
     <t>,394004, Воронежская обл, , Воронеж г, , Ленинградская ул, 31А, , , дом, корпус, кв.</t>
@@ -133,19 +138,19 @@
     <t>ТП 14 Григорова Е.А.       +7 961 182 31 75</t>
   </si>
   <si>
-    <t>ЗАКАЗ 5708373334 </t>
+    <t>ЗАКАЗ 5708373334</t>
   </si>
   <si>
     <t>Реализация товаров и услуг РТ000008356 от 16.04.2025 15:48:26</t>
   </si>
   <si>
-    <t>ЗАКАЗ 5708373334/5708375558 </t>
+    <t>ЗАКАЗ 5708373334/5708375558</t>
   </si>
   <si>
     <t>Реализация товаров и услуг РТ000008354 от 16.04.2025 16:37:40</t>
   </si>
   <si>
-    <t>ЗАКАЗ 5708375558 </t>
+    <t>ЗАКАЗ 5708375558</t>
   </si>
   <si>
     <t>Реализация товаров и услуг _РТ00005424 от 16.04.2025 16:31:08</t>
@@ -226,7 +231,7 @@
     <t>Попков Сергей Андреевич</t>
   </si>
   <si>
-    <t>доставка с 8 до 12 ч   </t>
+    <t>доставка с 8 до 12 ч</t>
   </si>
   <si>
     <t>8 30</t>
@@ -253,7 +258,7 @@
     <t>Реализация товаров и услуг РТ000008348 от 16.04.2025 16:29:30</t>
   </si>
   <si>
-    <t>Система ООО </t>
+    <t>Система ООО</t>
   </si>
   <si>
     <t>,, Воронежская обл, , Воронеж г, , Газовая ул, 28, , , дом, корпус, кв.</t>
@@ -463,7 +468,7 @@
     <t>Колесников Михаил Михайлович</t>
   </si>
   <si>
-    <t>Воронеж,  ул Витрука 12, строение 5   8-900-949-30-35 Вадим          без оплаты!         </t>
+    <t>Воронеж,  ул Витрука 12, строение 5   8-900-949-30-35 Вадим          без оплаты!</t>
   </si>
   <si>
     <t>Реализация товаров и услуг РТ000008316 от 16.04.2025 9:38:50</t>
@@ -535,7 +540,7 @@
     <t>Реализация товаров и услуг РТ000008215 от 15.04.2025 11:15:58</t>
   </si>
   <si>
-    <t>Козлов Андрей Михайлович Глава КФХ </t>
+    <t>Козлов Андрей Михайлович Глава КФХ</t>
   </si>
   <si>
     <t>,396160, Воронежская обл, Панинский р-н, , Петровское с, Колхозная ул, 25, , , дом, корпус, кв.</t>
@@ -550,59 +555,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="50" formatCode=""/>
-    <numFmt numFmtId="51" formatCode="#,##0.000"/>
-    <numFmt numFmtId="52" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF594304"/>
       <name val="Arial"/>
-      <charset val="0"/>
       <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <sz val="8"/>
-      <u val="none"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
       <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <color rgb="594304"/>
-      <sz val="8"/>
-      <u val="none"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
       <family val="2"/>
-      <b val="true"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <color rgb="000000"/>
-      <sz val="10"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <color rgb="000000"/>
-      <sz val="8"/>
-      <u val="none"/>
     </font>
   </fonts>
   <fills count="6">
@@ -614,26 +594,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F5F2DD"/>
-        <bgColor auto="true"/>
+        <fgColor rgb="FFF5F2DD"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor auto="true"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FA9A"/>
-        <bgColor auto="true"/>
+        <fgColor rgb="FF00FA9A"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6C1"/>
-        <bgColor auto="true"/>
+        <fgColor rgb="FFFFB6C1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -647,16 +627,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,53 +645,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="0" fontId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="51" fontId="3" fillId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="52" fontId="4" fillId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="52" fontId="4" fillId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="51" fontId="4" fillId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -720,39 +700,327 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
-    <pageSetUpPr autoPageBreaks="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="K52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="true"/>
-    <col min="2" max="2" width="36.16796875" style="1" customWidth="true"/>
-    <col min="3" max="3" width="21" style="1" customWidth="true"/>
-    <col min="4" max="4" width="63" style="1" customWidth="true"/>
-    <col min="5" max="5" width="15.16796875" style="1" customWidth="true"/>
-    <col min="6" max="6" width="15.16796875" style="1" customWidth="true"/>
-    <col min="7" max="7" width="15.16796875" style="1" customWidth="true"/>
-    <col min="8" max="8" width="15.16796875" style="1" customWidth="true"/>
-    <col min="9" max="9" width="35" style="1" customWidth="true"/>
-    <col min="10" max="10" width="21" style="1" customWidth="true"/>
-    <col min="11" max="11" width="21" style="1" customWidth="true"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63" style="1" customWidth="1"/>
+    <col min="5" max="7" width="15.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" style="1" customWidth="1"/>
+    <col min="10" max="11" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="11" customHeight="true">
+    <row r="1" spans="1:11" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -787,21 +1055,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="13" customHeight="true">
+    <row r="2" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="5">
         <v>1129.05</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>121327</v>
       </c>
     </row>
-    <row r="3" ht="11" customHeight="true" outlineLevel="1">
+    <row r="3" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -814,10 +1082,10 @@
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10" t="n">
-        <v>538.05</v>
-      </c>
-      <c r="F3" s="11" t="n">
+      <c r="E3" s="10">
+        <v>538.04999999999995</v>
+      </c>
+      <c r="F3" s="11">
         <v>56827</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -830,7 +1098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="11" customHeight="true" outlineLevel="1">
+    <row r="4" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -843,10 +1111,10 @@
       <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="10">
         <v>591</v>
       </c>
-      <c r="F4" s="11" t="n">
+      <c r="F4" s="11">
         <v>64500</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -859,21 +1127,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="13" customHeight="true">
+    <row r="5" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="5">
         <v>1226.17</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="6">
         <v>283098.23</v>
       </c>
     </row>
-    <row r="6" ht="11" customHeight="true" outlineLevel="1">
+    <row r="6" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
@@ -886,10 +1154,10 @@
       <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="10" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F6" s="11" t="n">
+      <c r="E6" s="10">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F6" s="11">
         <v>6440</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -902,7 +1170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="11" customHeight="true" outlineLevel="1">
+    <row r="7" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
@@ -915,10 +1183,10 @@
       <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="10">
         <v>60</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="11">
         <v>4087</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -931,7 +1199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" ht="11" customHeight="true" outlineLevel="1">
+    <row r="8" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -944,10 +1212,10 @@
       <c r="D8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="10">
         <v>55.35</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F8" s="11">
         <v>21421</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -960,7 +1228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" ht="11" customHeight="true" outlineLevel="1">
+    <row r="9" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
@@ -973,10 +1241,10 @@
       <c r="D9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="14">
         <v>10</v>
       </c>
-      <c r="F9" s="15" t="n">
+      <c r="F9" s="15">
         <v>2475.08</v>
       </c>
       <c r="G9" s="13" t="s">
@@ -988,10 +1256,10 @@
       <c r="I9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="13" t="e"/>
-      <c r="K9" s="13" t="e"/>
-    </row>
-    <row r="10" ht="11" customHeight="true" outlineLevel="1">
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1004,11 +1272,11 @@
       <c r="D10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="14">
         <v>28</v>
       </c>
-      <c r="F10" s="15" t="n">
-        <v>23584.4</v>
+      <c r="F10" s="15">
+        <v>23584.400000000001</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>38</v>
@@ -1019,10 +1287,10 @@
       <c r="I10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="13" t="e"/>
-      <c r="K10" s="13" t="e"/>
-    </row>
-    <row r="11" ht="11" customHeight="true" outlineLevel="1">
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
@@ -1035,10 +1303,10 @@
       <c r="D11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="14">
         <v>6</v>
       </c>
-      <c r="F11" s="15" t="n">
+      <c r="F11" s="15">
         <v>16240</v>
       </c>
       <c r="G11" s="13" t="s">
@@ -1050,10 +1318,10 @@
       <c r="I11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="13" t="e"/>
-      <c r="K11" s="13" t="e"/>
-    </row>
-    <row r="12" ht="11" customHeight="true" outlineLevel="1">
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -1066,10 +1334,10 @@
       <c r="D12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="10">
         <v>113.02</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="11">
         <v>39924</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -1082,7 +1350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" ht="11" customHeight="true" outlineLevel="1">
+    <row r="13" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1095,10 +1363,10 @@
       <c r="D13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" s="10">
         <v>788</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="11">
         <v>90460</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -1111,7 +1379,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" ht="11" customHeight="true" outlineLevel="1">
+    <row r="14" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1124,10 +1392,10 @@
       <c r="D14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="10">
         <v>99</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="11">
         <v>26802</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -1137,7 +1405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="11" customHeight="true" outlineLevel="1">
+    <row r="15" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -1150,10 +1418,10 @@
       <c r="D15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="10">
         <v>9.6</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="11">
         <v>36144</v>
       </c>
       <c r="G15" s="9" t="s">
@@ -1166,7 +1434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="11" customHeight="true" outlineLevel="1">
+    <row r="16" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1179,10 +1447,10 @@
       <c r="D16" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="14">
         <v>52.85</v>
       </c>
-      <c r="F16" s="15" t="n">
+      <c r="F16" s="15">
         <v>15520.75</v>
       </c>
       <c r="G16" s="13" t="s">
@@ -1191,25 +1459,25 @@
       <c r="H16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="13" t="e"/>
-      <c r="J16" s="13" t="e"/>
-      <c r="K16" s="13" t="e"/>
-    </row>
-    <row r="17" ht="13" customHeight="true">
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="4">
         <v>7</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="5">
         <v>1213.421</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="6">
         <v>372479.24</v>
       </c>
     </row>
-    <row r="18" ht="11" customHeight="true" outlineLevel="1">
+    <row r="18" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>64</v>
       </c>
@@ -1222,10 +1490,10 @@
       <c r="D18" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="14">
         <v>30.15</v>
       </c>
-      <c r="F18" s="15" t="n">
+      <c r="F18" s="15">
         <v>13109.08</v>
       </c>
       <c r="G18" s="13" t="s">
@@ -1237,12 +1505,12 @@
       <c r="I18" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="13" t="e"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" ht="11" customHeight="true" outlineLevel="1">
+    <row r="19" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
@@ -1255,10 +1523,10 @@
       <c r="D19" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="10" t="n">
+      <c r="E19" s="10">
         <v>571.66</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="11">
         <v>150672.6</v>
       </c>
       <c r="G19" s="9" t="s">
@@ -1268,7 +1536,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" ht="11" customHeight="true" outlineLevel="1">
+    <row r="20" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>64</v>
       </c>
@@ -1281,11 +1549,11 @@
       <c r="D20" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="14" t="n">
+      <c r="E20" s="14">
         <v>9.9</v>
       </c>
-      <c r="F20" s="15" t="n">
-        <v>9257.97</v>
+      <c r="F20" s="15">
+        <v>9257.9699999999993</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>38</v>
@@ -1293,11 +1561,11 @@
       <c r="H20" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="13" t="e"/>
-      <c r="J20" s="13" t="e"/>
-      <c r="K20" s="13" t="e"/>
-    </row>
-    <row r="21" ht="11" customHeight="true" outlineLevel="1">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>64</v>
       </c>
@@ -1310,10 +1578,10 @@
       <c r="D21" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="14" t="n">
+      <c r="E21" s="14">
         <v>426.661</v>
       </c>
-      <c r="F21" s="15" t="n">
+      <c r="F21" s="15">
         <v>150320</v>
       </c>
       <c r="G21" s="13" t="s">
@@ -1322,11 +1590,11 @@
       <c r="H21" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="13" t="e"/>
-      <c r="J21" s="13" t="e"/>
-      <c r="K21" s="13" t="e"/>
-    </row>
-    <row r="22" ht="11" customHeight="true" outlineLevel="1">
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>64</v>
       </c>
@@ -1339,10 +1607,10 @@
       <c r="D22" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="14" t="n">
+      <c r="E22" s="14">
         <v>15.1</v>
       </c>
-      <c r="F22" s="15" t="n">
+      <c r="F22" s="15">
         <v>4996.59</v>
       </c>
       <c r="G22" s="13" t="s">
@@ -1351,11 +1619,11 @@
       <c r="H22" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="13" t="e"/>
-      <c r="J22" s="13" t="e"/>
-      <c r="K22" s="13" t="e"/>
-    </row>
-    <row r="23" ht="11" customHeight="true" outlineLevel="1">
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>64</v>
       </c>
@@ -1368,10 +1636,10 @@
       <c r="D23" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="10" t="n">
+      <c r="E23" s="10">
         <v>20</v>
       </c>
-      <c r="F23" s="11" t="n">
+      <c r="F23" s="11">
         <v>8350</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -1381,7 +1649,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" ht="11" customHeight="true" outlineLevel="1">
+    <row r="24" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>64</v>
       </c>
@@ -1394,10 +1662,10 @@
       <c r="D24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="10" t="n">
+      <c r="E24" s="10">
         <v>80</v>
       </c>
-      <c r="F24" s="11" t="n">
+      <c r="F24" s="11">
         <v>19800</v>
       </c>
       <c r="G24" s="9" t="s">
@@ -1407,7 +1675,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" ht="11" customHeight="true" outlineLevel="1">
+    <row r="25" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>64</v>
       </c>
@@ -1420,10 +1688,10 @@
       <c r="D25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="10" t="n">
+      <c r="E25" s="10">
         <v>59.95</v>
       </c>
-      <c r="F25" s="11" t="n">
+      <c r="F25" s="11">
         <v>15973</v>
       </c>
       <c r="G25" s="9" t="s">
@@ -1433,21 +1701,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" ht="13" customHeight="true">
+    <row r="26" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="4">
         <v>10</v>
       </c>
-      <c r="E26" s="5" t="n">
-        <v>1903.064</v>
-      </c>
-      <c r="F26" s="6" t="n">
+      <c r="E26" s="5">
+        <v>1903.0640000000001</v>
+      </c>
+      <c r="F26" s="6">
         <v>370367.03</v>
       </c>
     </row>
-    <row r="27" ht="11" customHeight="true" outlineLevel="1">
+    <row r="27" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>92</v>
       </c>
@@ -1460,10 +1728,10 @@
       <c r="D27" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="10" t="n">
+      <c r="E27" s="10">
         <v>120.53</v>
       </c>
-      <c r="F27" s="11" t="n">
+      <c r="F27" s="11">
         <v>33716</v>
       </c>
       <c r="G27" s="9" t="s">
@@ -1476,7 +1744,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" ht="11" customHeight="true" outlineLevel="1">
+    <row r="28" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>92</v>
       </c>
@@ -1489,10 +1757,10 @@
       <c r="D28" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="F28" s="11" t="n">
+      <c r="E28" s="10">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F28" s="11">
         <v>3002.75</v>
       </c>
       <c r="G28" s="9" t="s">
@@ -1502,7 +1770,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" ht="11" customHeight="true" outlineLevel="1">
+    <row r="29" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>92</v>
       </c>
@@ -1515,10 +1783,10 @@
       <c r="D29" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="10" t="n">
-        <v>73.65</v>
-      </c>
-      <c r="F29" s="11" t="n">
+      <c r="E29" s="10">
+        <v>73.650000000000006</v>
+      </c>
+      <c r="F29" s="11">
         <v>18870</v>
       </c>
       <c r="G29" s="9" t="s">
@@ -1528,7 +1796,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" ht="11" customHeight="true" outlineLevel="1">
+    <row r="30" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>92</v>
       </c>
@@ -1541,10 +1809,10 @@
       <c r="D30" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="10" t="n">
+      <c r="E30" s="10">
         <v>394</v>
       </c>
-      <c r="F30" s="11" t="n">
+      <c r="F30" s="11">
         <v>36330</v>
       </c>
       <c r="G30" s="9" t="s">
@@ -1557,7 +1825,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" ht="11" customHeight="true" outlineLevel="1">
+    <row r="31" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>92</v>
       </c>
@@ -1570,10 +1838,10 @@
       <c r="D31" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="10" t="n">
+      <c r="E31" s="10">
         <v>180</v>
       </c>
-      <c r="F31" s="11" t="n">
+      <c r="F31" s="11">
         <v>32500</v>
       </c>
       <c r="G31" s="9" t="s">
@@ -1586,7 +1854,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" ht="11" customHeight="true" outlineLevel="1">
+    <row r="32" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>92</v>
       </c>
@@ -1599,11 +1867,11 @@
       <c r="D32" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E32" s="10" t="n">
-        <v>1.227</v>
-      </c>
-      <c r="F32" s="11" t="n">
-        <v>2612.32</v>
+      <c r="E32" s="10">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="F32" s="11">
+        <v>2612.3200000000002</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>38</v>
@@ -1612,7 +1880,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" ht="11" customHeight="true" outlineLevel="1">
+    <row r="33" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>92</v>
       </c>
@@ -1625,10 +1893,10 @@
       <c r="D33" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="10" t="n">
+      <c r="E33" s="10">
         <v>588</v>
       </c>
-      <c r="F33" s="11" t="n">
+      <c r="F33" s="11">
         <v>97260</v>
       </c>
       <c r="G33" s="9" t="s">
@@ -1638,7 +1906,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" ht="11" customHeight="true" outlineLevel="1">
+    <row r="34" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>92</v>
       </c>
@@ -1651,10 +1919,10 @@
       <c r="D34" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="10" t="n">
-        <v>0.362</v>
-      </c>
-      <c r="F34" s="11" t="n">
+      <c r="E34" s="10">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F34" s="11">
         <v>3487.4</v>
       </c>
       <c r="G34" s="9" t="s">
@@ -1664,7 +1932,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" ht="11" customHeight="true" outlineLevel="1">
+    <row r="35" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>92</v>
       </c>
@@ -1677,10 +1945,10 @@
       <c r="D35" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="10" t="n">
+      <c r="E35" s="10">
         <v>44</v>
       </c>
-      <c r="F35" s="11" t="n">
+      <c r="F35" s="11">
         <v>5837</v>
       </c>
       <c r="G35" s="9" t="s">
@@ -1690,7 +1958,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" ht="11" customHeight="true" outlineLevel="1">
+    <row r="36" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>92</v>
       </c>
@@ -1703,10 +1971,10 @@
       <c r="D36" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="10" t="n">
+      <c r="E36" s="10">
         <v>10</v>
       </c>
-      <c r="F36" s="11" t="n">
+      <c r="F36" s="11">
         <v>4870</v>
       </c>
       <c r="G36" s="9" t="s">
@@ -1716,7 +1984,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" ht="11" customHeight="true" outlineLevel="1">
+    <row r="37" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>92</v>
       </c>
@@ -1729,10 +1997,10 @@
       <c r="D37" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="14" t="n">
+      <c r="E37" s="14">
         <v>23.4</v>
       </c>
-      <c r="F37" s="15" t="n">
+      <c r="F37" s="15">
         <v>39917.51</v>
       </c>
       <c r="G37" s="13" t="s">
@@ -1741,11 +2009,11 @@
       <c r="H37" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I37" s="13" t="e"/>
-      <c r="J37" s="13" t="e"/>
-      <c r="K37" s="13" t="e"/>
-    </row>
-    <row r="38" ht="11" customHeight="true" outlineLevel="1">
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>92</v>
       </c>
@@ -1758,10 +2026,10 @@
       <c r="D38" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="10" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="F38" s="11" t="n">
+      <c r="E38" s="10">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="F38" s="11">
         <v>1504.07</v>
       </c>
       <c r="G38" s="9" t="s">
@@ -1771,7 +2039,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" ht="11" customHeight="true" outlineLevel="1">
+    <row r="39" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>92</v>
       </c>
@@ -1784,10 +2052,10 @@
       <c r="D39" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="14" t="n">
+      <c r="E39" s="14">
         <v>466.37</v>
       </c>
-      <c r="F39" s="15" t="n">
+      <c r="F39" s="15">
         <v>90459.98</v>
       </c>
       <c r="G39" s="13" t="s">
@@ -1799,24 +2067,24 @@
       <c r="I39" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J39" s="13" t="e"/>
-      <c r="K39" s="13" t="e"/>
-    </row>
-    <row r="40" ht="13" customHeight="true">
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="4" t="n">
+      <c r="C40" s="4">
         <v>1</v>
       </c>
-      <c r="E40" s="5" t="n">
+      <c r="E40" s="5">
         <v>5648.2</v>
       </c>
-      <c r="F40" s="6" t="n">
+      <c r="F40" s="6">
         <v>1392420.9</v>
       </c>
     </row>
-    <row r="41" ht="11" customHeight="true" outlineLevel="1">
+    <row r="41" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>136</v>
       </c>
@@ -1829,10 +2097,10 @@
       <c r="D41" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="16" t="n">
+      <c r="E41" s="16">
         <v>5641.2</v>
       </c>
-      <c r="F41" s="11" t="n">
+      <c r="F41" s="11">
         <v>1372364.9</v>
       </c>
       <c r="G41" s="9" t="s">
@@ -1848,7 +2116,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" ht="11" customHeight="true" outlineLevel="1">
+    <row r="42" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>136</v>
       </c>
@@ -1861,10 +2129,10 @@
       <c r="D42" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="10" t="n">
+      <c r="E42" s="10">
         <v>7</v>
       </c>
-      <c r="F42" s="11" t="n">
+      <c r="F42" s="11">
         <v>20056</v>
       </c>
       <c r="G42" s="9" t="s">
@@ -1880,21 +2148,21 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" ht="13" customHeight="true">
+    <row r="43" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="4" t="n">
+      <c r="C43" s="4">
         <v>7</v>
       </c>
-      <c r="E43" s="5" t="n">
-        <v>4548.9</v>
-      </c>
-      <c r="F43" s="6" t="n">
+      <c r="E43" s="5">
+        <v>4548.8999999999996</v>
+      </c>
+      <c r="F43" s="6">
         <v>590943</v>
       </c>
     </row>
-    <row r="44" ht="11" customHeight="true" outlineLevel="1">
+    <row r="44" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>146</v>
       </c>
@@ -1904,10 +2172,10 @@
       <c r="C44" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="10" t="n">
+      <c r="E44" s="10">
         <v>788</v>
       </c>
-      <c r="F44" s="11" t="n">
+      <c r="F44" s="11">
         <v>159742</v>
       </c>
       <c r="G44" s="9" t="s">
@@ -1923,7 +2191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" ht="11" customHeight="true" outlineLevel="1">
+    <row r="45" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>146</v>
       </c>
@@ -1936,10 +2204,10 @@
       <c r="D45" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E45" s="10" t="n">
+      <c r="E45" s="10">
         <v>394</v>
       </c>
-      <c r="F45" s="11" t="n">
+      <c r="F45" s="11">
         <v>43600</v>
       </c>
       <c r="G45" s="9" t="s">
@@ -1952,7 +2220,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" ht="11" customHeight="true" outlineLevel="1">
+    <row r="46" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>146</v>
       </c>
@@ -1965,10 +2233,10 @@
       <c r="D46" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="10" t="n">
+      <c r="E46" s="10">
         <v>5</v>
       </c>
-      <c r="F46" s="11" t="n">
+      <c r="F46" s="11">
         <v>3500</v>
       </c>
       <c r="G46" s="9" t="s">
@@ -1981,7 +2249,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" ht="11" customHeight="true" outlineLevel="1">
+    <row r="47" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>146</v>
       </c>
@@ -1994,10 +2262,10 @@
       <c r="D47" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="10" t="n">
+      <c r="E47" s="10">
         <v>721.1</v>
       </c>
-      <c r="F47" s="11" t="n">
+      <c r="F47" s="11">
         <v>73400</v>
       </c>
       <c r="G47" s="9" t="s">
@@ -2010,7 +2278,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" ht="11" customHeight="true" outlineLevel="1">
+    <row r="48" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>146</v>
       </c>
@@ -2023,10 +2291,10 @@
       <c r="D48" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E48" s="10" t="n">
+      <c r="E48" s="10">
         <v>237</v>
       </c>
-      <c r="F48" s="11" t="n">
+      <c r="F48" s="11">
         <v>41800</v>
       </c>
       <c r="G48" s="9" t="s">
@@ -2042,7 +2310,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" ht="11" customHeight="true" outlineLevel="1">
+    <row r="49" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>146</v>
       </c>
@@ -2055,10 +2323,10 @@
       <c r="D49" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E49" s="10" t="n">
-        <v>136.8</v>
-      </c>
-      <c r="F49" s="11" t="n">
+      <c r="E49" s="10">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="F49" s="11">
         <v>21051</v>
       </c>
       <c r="G49" s="9" t="s">
@@ -2068,7 +2336,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" ht="11" customHeight="true" outlineLevel="1">
+    <row r="50" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>146</v>
       </c>
@@ -2081,10 +2349,10 @@
       <c r="D50" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="16" t="n">
+      <c r="E50" s="16">
         <v>1379</v>
       </c>
-      <c r="F50" s="11" t="n">
+      <c r="F50" s="11">
         <v>150500</v>
       </c>
       <c r="G50" s="9" t="s">
@@ -2097,7 +2365,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" ht="11" customHeight="true" outlineLevel="1">
+    <row r="51" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>146</v>
       </c>
@@ -2110,10 +2378,10 @@
       <c r="D51" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E51" s="10" t="n">
+      <c r="E51" s="10">
         <v>394</v>
       </c>
-      <c r="F51" s="11" t="n">
+      <c r="F51" s="11">
         <v>43600</v>
       </c>
       <c r="G51" s="9" t="s">
@@ -2126,7 +2394,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" ht="11" customHeight="true" outlineLevel="1">
+    <row r="52" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>146</v>
       </c>
@@ -2139,10 +2407,10 @@
       <c r="D52" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E52" s="10" t="n">
+      <c r="E52" s="10">
         <v>494</v>
       </c>
-      <c r="F52" s="11" t="n">
+      <c r="F52" s="11">
         <v>53750</v>
       </c>
       <c r="G52" s="9" t="s">
@@ -2156,7 +2424,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" top="0.75" right="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>